--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_9_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_9_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.88000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.270641516023069e-16</v>
+        <v>1.277954560719605e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>40.83273274328366</v>
+        <v>46.13676814161559</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.59819424339489, 45.06727124317242]</t>
+          <t>[41.85131668419478, 50.4222195990364]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5157634224527339, 1.7421845146033483]</t>
+          <t>[1.54092132158058, 1.7421845146033483]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.96816798708502</v>
+        <v>58.06247306845448</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.15501517201983, 55.78132080215022]</t>
+          <t>[55.22427532833242, 60.90067080857654]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.6888888888891</v>
+        <v>17.62630630630652</v>
       </c>
       <c r="X2" t="n">
-        <v>17.25861861861883</v>
+        <v>17.24416416416438</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.11915915915938</v>
+        <v>18.00844844844866</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.62000000000025</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.270641516023069e-16</v>
+        <v>1.277954560719605e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.45117596075312</v>
+        <v>48.58817404087332</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[37.76822962383766, 55.134122297668576]</t>
+          <t>[41.374335709612815, 55.802012372133824]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8868159442565782</v>
+        <v>-0.3270526886620004</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 1.0880791372793475]</t>
+          <t>[-0.49057903299300065, -0.16352634433100022]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0.0001123143493098056</v>
       </c>
       <c r="R3" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0.0001123143493098056</v>
       </c>
       <c r="S3" t="n">
-        <v>54.65070522390945</v>
+        <v>53.46007092299402</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.144618190352226, 59.156792257466684]</t>
+          <t>[49.383141414729664, 57.53700043125838]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.28624624624646</v>
+        <v>1.2096896896897</v>
       </c>
       <c r="X3" t="n">
-        <v>19.52964964964986</v>
+        <v>0.6048448448448502</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.04284284284307</v>
+        <v>1.81453453453455</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_9_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_9_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.86000000000029</v>
+        <v>23.81000000000028</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.277954560719605e-16</v>
+        <v>1.279795993804215e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.13676814161559</v>
+        <v>45.07115655981271</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[41.85131668419478, 50.4222195990364]</t>
+          <t>[40.87369409738742, 49.26861902223799]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 1.7421845146033483]</t>
+          <t>[1.490605523324886, 1.6918687163476562]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.06247306845448</v>
+        <v>53.45572295010292</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.22427532833242, 60.90067080857654]</t>
+          <t>[50.60386703756262, 56.30757886264321]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.62630630630652</v>
+        <v>17.78004004004026</v>
       </c>
       <c r="X2" t="n">
-        <v>17.24416416416438</v>
+        <v>17.39869869869891</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.00844844844866</v>
+        <v>18.1613813813816</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.24000000000019</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.277954560719605e-16</v>
+        <v>1.279795993804215e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.58817404087332</v>
+        <v>47.37643128053558</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[41.374335709612815, 55.802012372133824]</t>
+          <t>[40.357430873719075, 54.395431687352094]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.3270526886620004</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.49057903299300065, -0.16352634433100022]</t>
+          <t>[1.6541318676558872, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001123143493098056</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001123143493098056</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.46007092299402</v>
+        <v>54.13067118847045</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.383141414729664, 57.53700043125838]</t>
+          <t>[49.917624287902264, 58.34371808903864]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2096896896897</v>
+        <v>17.02152152152174</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6048448448448502</v>
+        <v>16.39819819819841</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.81453453453455</v>
+        <v>17.64484484484507</v>
       </c>
     </row>
   </sheetData>
